--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1559348.012021439</v>
+        <v>1634877.681686243</v>
       </c>
     </row>
     <row r="7">
@@ -662,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>96.61821613368446</v>
       </c>
       <c r="T2" t="n">
-        <v>4.669905662784863</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>54.70191565295233</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>121.1158914498618</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>279.6384992078843</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>115.2741345058928</v>
+        <v>140.8171000393984</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>19.78095957791278</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>83.85505920081758</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>162.3364906735233</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.3370797092944</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>122.2151751544596</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.7644211441605784</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.012178247056795</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>54.6855279182297</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2934908831576</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002169</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>152.6276470398227</v>
       </c>
       <c r="X25" t="n">
-        <v>122.2151751544597</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2959,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>33.85121559527229</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>58.99180592869621</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.0294537590071</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151926</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>123.4233208501898</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>256.111763886877</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>39.53928166092112</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.2618317737553</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>22.62632676293162</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.607341885688</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2599.55493330743</v>
       </c>
       <c r="T2" t="n">
-        <v>2692.432014591167</v>
+        <v>2380.920266279493</v>
       </c>
       <c r="U2" t="n">
-        <v>2438.670229229258</v>
+        <v>2127.158480917584</v>
       </c>
       <c r="V2" t="n">
-        <v>2107.607341885688</v>
+        <v>2127.158480917584</v>
       </c>
       <c r="W2" t="n">
-        <v>2107.607341885688</v>
+        <v>2127.158480917584</v>
       </c>
       <c r="X2" t="n">
-        <v>2107.607341885688</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y2" t="n">
-        <v>2107.607341885688</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>643.457604804549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>643.457604804549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>643.457604804549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1902.75190621448</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C5" t="n">
-        <v>1902.75190621448</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1544.48620760773</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1158.697955009485</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>747.7120502198777</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>329.7482421180646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4601,16 +4603,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278602</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278602</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y5" t="n">
-        <v>2289.351746278602</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.835978902614</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C8" t="n">
-        <v>902.8734619622021</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>902.8734619622021</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>902.8734619622021</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>491.8875571725945</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>73.92374907078141</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2557.41832154789</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2338.783654519953</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2338.783654519953</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2338.783654519953</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.575150942547</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y8" t="n">
-        <v>1658.435818966735</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5020,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5106,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5179,13 +5181,13 @@
         <v>927.5390436562259</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,7 +5196,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.07093915895</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="17">
@@ -5531,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1443.678363569792</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1219.892948359297</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1219.892948359297</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>965.2084601534104</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>675.7912901164498</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X19" t="n">
-        <v>447.8017392184324</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="20">
@@ -5753,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>4230.423978142506</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>4072.551765129215</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>4072.551765129215</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>3924.638671546822</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H22" t="n">
         <v>3459.155393916676</v>
@@ -5935,25 +5937,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>4744.160657054477</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>4520.375241843983</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>4231.246603057541</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V22" t="n">
-        <v>3976.562114851654</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W22" t="n">
-        <v>3687.144944814693</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>4632.865022116275</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>4412.072442972745</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>973.0255547109412</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C25" t="n">
-        <v>804.0893717830343</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D25" t="n">
-        <v>653.9727323706985</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E25" t="n">
-        <v>506.0596387883054</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="X25" t="n">
-        <v>1375.466598684711</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="Y25" t="n">
-        <v>1154.674019541181</v>
+        <v>3628.091576844583</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,7 +6247,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6464,7 +6466,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,7 +6499,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6540,19 +6542,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4033.668348055211</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="C31" t="n">
-        <v>4033.668348055211</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="D31" t="n">
-        <v>4033.668348055211</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="E31" t="n">
-        <v>3885.755254472818</v>
+        <v>561.538160036506</v>
       </c>
       <c r="F31" t="n">
-        <v>3738.865306974908</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294728</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>4347.940519017357</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V31" t="n">
-        <v>4093.25603081147</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W31" t="n">
-        <v>4033.668348055211</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X31" t="n">
-        <v>4033.668348055211</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="Y31" t="n">
-        <v>4033.668348055211</v>
+        <v>709.4512536188992</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6679,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514081</v>
@@ -6716,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>3922.735262851337</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>3922.735262851337</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>3922.735262851337</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>3922.735262851337</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>3775.845315353427</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>3607.669993673248</v>
       </c>
       <c r="H34" t="n">
         <v>3459.155393916675</v>
@@ -6868,40 +6870,40 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929844</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U34" t="n">
-        <v>4231.24660305754</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851653</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814692</v>
+        <v>4371.517392892884</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916675</v>
+        <v>4143.527841994867</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>3922.735262851337</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>4347.338425602348</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>4222.66840454155</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>4072.551765129214</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>3924.638671546821</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U37" t="n">
-        <v>1240.217519157017</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V37" t="n">
-        <v>985.5330309511296</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="W37" t="n">
-        <v>696.115860914169</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="X37" t="n">
-        <v>468.1263100161517</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>4528.986890432588</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,31 +7162,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,7 +7198,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>844.0280401273991</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>844.0280401273991</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>693.9114007150633</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>545.9983071326702</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>399.1083596347598</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>844.0280401273991</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>844.0280401273991</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>844.0280401273991</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>844.0280401273991</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372322</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>3484.747546292012</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556162</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4054.319213292873</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>4054.319213292873</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>3904.202573880537</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>3756.463349866643</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>4282.30876419089</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X43" t="n">
-        <v>4054.319213292873</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y43" t="n">
-        <v>4054.319213292873</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7667,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7688,10 +7690,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775518</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>4503.13917884751</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.916270557902</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>4525.994054365623</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100656</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814574</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>73.53204524670059</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9953,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>73.64859338270691</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,22 +10190,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>44.27839330891794</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6695415024086</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>141.4088697758745</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>143.2352820653736</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>10.9533302154702</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338635</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>133.8953512967683</v>
       </c>
       <c r="X25" t="n">
-        <v>103.4944802345775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>111.569832427659</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>227.5311924078948</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25084,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>1.884374608529043</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338477</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>43.82350024843801</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,16 +25368,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>30.12558851170036</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>126.9542868024565</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1721308728138524</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>157.2056534190057</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852504</v>
-      </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852505</v>
@@ -26338,22 +26340,22 @@
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852501</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="N2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26430,7 +26432,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,13 +26441,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="K4" t="n">
-        <v>22174.60758687072</v>
-      </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26457,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,22 +26490,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-345834.7631459084</v>
+        <v>-345834.7631459086</v>
       </c>
       <c r="C6" t="n">
-        <v>244133.1160686361</v>
+        <v>244133.1160686359</v>
       </c>
       <c r="D6" t="n">
-        <v>244133.1160686361</v>
+        <v>244133.116068636</v>
       </c>
       <c r="E6" t="n">
-        <v>-170087.0983272332</v>
+        <v>-170087.0983272329</v>
       </c>
       <c r="F6" t="n">
+        <v>355072.938149663</v>
+      </c>
+      <c r="G6" t="n">
         <v>355072.9381496632</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>355072.938149663</v>
-      </c>
-      <c r="H6" t="n">
-        <v>355072.9381496631</v>
       </c>
       <c r="I6" t="n">
         <v>355072.9381496632</v>
@@ -26546,22 +26548,22 @@
         <v>178649.7189570701</v>
       </c>
       <c r="K6" t="n">
-        <v>355072.9381496631</v>
+        <v>355072.9381496627</v>
       </c>
       <c r="L6" t="n">
-        <v>355072.9381496631</v>
+        <v>355072.938149663</v>
       </c>
       <c r="M6" t="n">
-        <v>220271.922915826</v>
+        <v>220271.9229158259</v>
       </c>
       <c r="N6" t="n">
         <v>355072.9381496632</v>
       </c>
       <c r="O6" t="n">
-        <v>355072.938149663</v>
+        <v>355072.9381496632</v>
       </c>
       <c r="P6" t="n">
-        <v>355072.9381496633</v>
+        <v>355072.9381496632</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26762,16 +26764,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>77.79749667528708</v>
       </c>
       <c r="T2" t="n">
-        <v>211.7784146948729</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>91.96327632720551</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>202.8068813144953</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>90.09260147058473</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>171.2488638306982</v>
+        <v>145.7058982971926</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.1418131864444</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>90.56065360815396</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>89.80115265030466</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,10 +35743,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951397</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.29515423417</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36200,7 +36202,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36209,13 +36211,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>280.6254601782252</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>356.012295623815</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
@@ -37877,7 +37879,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1634877.681686243</v>
+        <v>1627860.666794532</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>399.5646059586872</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>96.61821613368446</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>97.43077510209432</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>61.72706601628354</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>279.6384992078843</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>140.8171000393984</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>83.85505920081758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>47.50320101340264</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.46389722690822</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.1057214040792</v>
       </c>
       <c r="G13" t="n">
-        <v>122.2151751544596</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7644211441605784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>4.012178247056795</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>69.78584166482513</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2934908831576</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>99.43636052933105</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>152.6276470398227</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>88.18589455074775</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>31.08391773098202</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>33.85121559527229</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.0294537590071</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>123.4233208501898</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>273.1258235321405</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2425576766696</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>155.8385935972304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.62632676293162</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1330.938043216202</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>945.1497906179575</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>938.204289868754</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2599.55493330743</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2380.920266279493</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2127.158480917584</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2127.158480917584</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2127.158480917584</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.692722656504</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>415.4256366790473</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>2028.59438369213</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1638.455051716319</v>
+        <v>2134.880026519315</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2557.41832154789</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2338.783654519953</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2338.783654519953</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V8" t="n">
-        <v>2338.783654519953</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W8" t="n">
-        <v>1986.014999249838</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.014999249838</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y8" t="n">
-        <v>1595.875667274027</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5038,10 +5038,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5050,7 +5050,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,19 +5059,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562259</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="D13" t="n">
-        <v>777.4224042438901</v>
+        <v>199.3440827775376</v>
       </c>
       <c r="E13" t="n">
-        <v>629.509310661497</v>
+        <v>199.3440827775376</v>
       </c>
       <c r="F13" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414372</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.325632214049</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1595.645765494011</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1925.508393158044</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2205.048458376741</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2410.07093915895</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.007103038344</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>675.007103038344</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>675.007103038344</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X16" t="n">
-        <v>675.007103038344</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.007103038344</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>531.3977182706318</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C19" t="n">
-        <v>531.3977182706318</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>531.3977182706318</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1228.505511317066</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1228.505511317066</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>973.8210231111786</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706318</v>
+        <v>973.8210231111786</v>
       </c>
       <c r="X19" t="n">
-        <v>531.3977182706318</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y19" t="n">
-        <v>531.3977182706318</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4230.423978142506</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="C22" t="n">
-        <v>4072.551765129215</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="D22" t="n">
-        <v>4072.551765129215</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>3924.638671546822</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014292</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014292</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X22" t="n">
-        <v>4632.865022116275</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y22" t="n">
-        <v>4412.072442972745</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3628.091576844583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288848</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>3628.091576844583</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>3628.091576844583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>3628.091576844583</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,28 +6214,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,19 +6305,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515591</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
         <v>2016.139981183168</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916676</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916676</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4633.68764703131</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>4379.003158825423</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>4089.585988788463</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="X28" t="n">
-        <v>3861.596437890445</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y28" t="n">
-        <v>3640.803858746915</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6460,49 +6460,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6539,22 +6539,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4512536188992</v>
+        <v>573.5346686508867</v>
       </c>
       <c r="C31" t="n">
-        <v>709.4512536188992</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>709.4512536188992</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>561.538160036506</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>964.135741824786</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>709.4512536188992</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W31" t="n">
-        <v>709.4512536188992</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="X31" t="n">
-        <v>709.4512536188992</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.4512536188992</v>
+        <v>755.1831334811264</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3922.735262851337</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C34" t="n">
-        <v>3922.735262851337</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3922.735262851337</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3922.735262851337</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3775.845315353427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3607.669993673248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>4660.934562929845</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>4660.934562929845</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>4371.517392892884</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>4143.527841994867</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y34" t="n">
-        <v>3922.735262851337</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>570.0299571250964</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315606</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311522</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4347.338425602348</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C37" t="n">
-        <v>4222.66840454155</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D37" t="n">
-        <v>4072.551765129214</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E37" t="n">
-        <v>3924.638671546821</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048911</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V37" t="n">
-        <v>4749.779469576118</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W37" t="n">
-        <v>4749.779469576118</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="X37" t="n">
-        <v>4749.779469576118</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="Y37" t="n">
-        <v>4528.986890432588</v>
+        <v>544.6416868225887</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7377,7 +7377,7 @@
         <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.9038434870658</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W43" t="n">
-        <v>1341.503549752619</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X43" t="n">
-        <v>1113.513998854602</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y43" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4503.13917884751</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C46" t="n">
-        <v>4334.202995919603</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D46" t="n">
-        <v>4184.086356507268</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>4036.173262924875</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426964</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746785</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4525.994054365623</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U46" t="n">
-        <v>4525.994054365623</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V46" t="n">
-        <v>4525.994054365623</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W46" t="n">
-        <v>4525.994054365623</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X46" t="n">
-        <v>4525.994054365623</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y46" t="n">
-        <v>4525.994054365623</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>297.2466435761031</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.6461250100656</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>73.64859338270691</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10190,22 +10190,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>29.4753596397814</v>
       </c>
       <c r="M30" t="n">
-        <v>127.6461250100647</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135234</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>44.31532661885203</v>
       </c>
       <c r="G13" t="n">
-        <v>44.27839330891794</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6695415024086</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>141.4088697758745</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>151.7617193935641</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>10.9533302154702</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>49.1791124888813</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.8953512967683</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>198.3371037858433</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>136.1629033676458</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>111.569832427659</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429840978</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>1.884374608529043</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>43.82350024843801</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>13.39717480445051</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61.34209567542521</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157.2056534190057</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>84.59001010593099</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="F2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="G2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="H2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852505</v>
@@ -26340,22 +26340,22 @@
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="L2" t="n">
         <v>469234.8716852501</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="N2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="P2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.48295464189141e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865245</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26441,7 +26441,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26450,13 +26450,13 @@
         <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-345834.7631459086</v>
       </c>
       <c r="C6" t="n">
+        <v>244133.116068636</v>
+      </c>
+      <c r="D6" t="n">
         <v>244133.1160686359</v>
       </c>
-      <c r="D6" t="n">
-        <v>244133.116068636</v>
-      </c>
       <c r="E6" t="n">
-        <v>-170087.0983272329</v>
+        <v>-171061.6895869547</v>
       </c>
       <c r="F6" t="n">
-        <v>355072.938149663</v>
+        <v>354098.3468899414</v>
       </c>
       <c r="G6" t="n">
-        <v>355072.9381496632</v>
+        <v>354098.3468899414</v>
       </c>
       <c r="H6" t="n">
-        <v>355072.938149663</v>
+        <v>354098.3468899415</v>
       </c>
       <c r="I6" t="n">
-        <v>355072.9381496632</v>
+        <v>354098.3468899415</v>
       </c>
       <c r="J6" t="n">
-        <v>178649.7189570701</v>
+        <v>177675.1276973486</v>
       </c>
       <c r="K6" t="n">
-        <v>355072.9381496627</v>
+        <v>354098.3468899411</v>
       </c>
       <c r="L6" t="n">
-        <v>355072.938149663</v>
+        <v>354098.3468899411</v>
       </c>
       <c r="M6" t="n">
-        <v>220271.9229158259</v>
+        <v>219297.3316561039</v>
       </c>
       <c r="N6" t="n">
-        <v>355072.9381496632</v>
+        <v>354098.3468899415</v>
       </c>
       <c r="O6" t="n">
-        <v>355072.9381496632</v>
+        <v>354098.3468899413</v>
       </c>
       <c r="P6" t="n">
-        <v>355072.9381496632</v>
+        <v>354098.3468899413</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14.21956406210779</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>77.79749667528708</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>82.40120507984298</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>321.0067756471971</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>90.09260147058473</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>46.76331713866882</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>145.7058982971926</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>90.56065360815396</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>203.7209664948867</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.65885272800612</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>579.6103458172112</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>215.6591577951397</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36682,13 +36682,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>510.1640057735818</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>356.012295623815</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M30" t="n">
-        <v>438.070502060531</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>309.5875389014627</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1627860.666794532</v>
+        <v>1632799.929643563</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>396.3553702281303</v>
       </c>
       <c r="G2" t="n">
-        <v>399.5646059586872</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.43077510209432</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>72.65793777463499</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.72706601628354</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>26.99995778729098</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>99.90187484148903</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>47.50320101340264</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850751</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.46389722690822</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>72.65793777463499</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174145</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>101.1057214040792</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>178.0344873527953</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>155.8385935972304</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.3815461749967</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>69.78584166482513</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>14.1709628329928</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>99.43636052933105</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>181.6851090328751</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>87.19731670114093</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>141.2552209831413</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>88.18589455074775</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>31.08391773098202</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>126.3608161767566</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>115.5269768002181</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>273.1258235321405</v>
+        <v>119.674475374601</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.2425576766696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.1537278750036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T46" t="n">
-        <v>136.9575509524583</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.203741822952</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C2" t="n">
-        <v>1689.203741822952</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.938043216202</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E2" t="n">
-        <v>945.1497906179575</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F2" t="n">
-        <v>938.204289868754</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4375,7 +4375,7 @@
         <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.4256366790473</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245972</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2072.529454785695</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4792,64 +4792,64 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2649.166059691552</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2318.103172347981</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1965.334517077867</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.868758816787</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.5189870075369</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>713.5189870075369</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.5189870075369</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5038,46 +5038,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113633</v>
+        <v>966.6932390011342</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.603879777666</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.4607221898733</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C13" t="n">
-        <v>349.4607221898733</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>199.3440827775376</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>199.3440827775376</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>531.109187020113</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.109187020113</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>582.2416896507654</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>1341.503549752619</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>1341.503549752619</v>
+        <v>1212.672284522553</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.513998854602</v>
+        <v>984.6827336245352</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>763.8901544810051</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,64 +5503,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1228.505511317066</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1228.505511317066</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V19" t="n">
-        <v>973.8210231111786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W19" t="n">
-        <v>973.8210231111786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="X19" t="n">
-        <v>745.8314722131613</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,28 +5770,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>492.4609007520348</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="C22" t="n">
-        <v>492.4609007520348</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1315.395958403484</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1315.395958403484</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1315.395958403484</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>1315.395958403484</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500522</v>
+        <v>1025.978788366523</v>
       </c>
       <c r="X22" t="n">
-        <v>492.4609007520348</v>
+        <v>797.9892374685055</v>
       </c>
       <c r="Y22" t="n">
-        <v>492.4609007520348</v>
+        <v>577.1966583249754</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6074,16 +6074,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201016</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201016</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201016</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201016</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1210.918162795534</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>921.7895240090928</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>667.105035803206</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201016</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,25 +6226,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1356.23422916079</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1132.448813950296</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1132.448813950296</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="W28" t="n">
-        <v>1120.710970609089</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X28" t="n">
-        <v>892.7214197110717</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775513</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>573.5346686508867</v>
+        <v>371.7442270155261</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>371.7442270155261</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>371.7442270155261</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>371.7442270155261</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>224.8542795176158</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>755.1831334811264</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>755.1831334811264</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X31" t="n">
-        <v>755.1831334811264</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y31" t="n">
-        <v>755.1831334811264</v>
+        <v>371.7442270155261</v>
       </c>
     </row>
     <row r="32">
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>570.0299571250964</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>816.7950850315606</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M36" t="n">
-        <v>1124.115218311522</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.977845975555</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>544.6416868225887</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C37" t="n">
-        <v>544.6416868225887</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D37" t="n">
-        <v>394.5250474102529</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>820.5263570570741</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W37" t="n">
-        <v>544.6416868225887</v>
+        <v>1154.247546888215</v>
       </c>
       <c r="X37" t="n">
-        <v>544.6416868225887</v>
+        <v>926.257995990198</v>
       </c>
       <c r="Y37" t="n">
-        <v>544.6416868225887</v>
+        <v>705.4654168466678</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305959</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7611,10 +7611,10 @@
         <v>465.7659634441654</v>
       </c>
       <c r="X43" t="n">
-        <v>237.776412546148</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T46" t="n">
-        <v>1360.575309999864</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>1071.446671213422</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>816.762183007535</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>527.3450129705744</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>527.3450129705744</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>297.2466435761031</v>
+        <v>283.6093329825486</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504495</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>29.4753596397814</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298194</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>159.0121003135234</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>44.31532661885203</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>47.67516803624181</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23712,10 +23712,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>96.29904972659759</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>3.141452161594316</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>151.7617193935641</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>204.413690519102</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>49.1791124888813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.2357009507281</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>134.3502443572483</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>56.66558900046192</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>198.3371037858433</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>136.1629033676458</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>40.13275228662097</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>51.71984429840978</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>13.39717480445051</v>
+        <v>166.84852296199</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>146.4805103800785</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.34209567542518</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>33.55325026999137</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>79.43092547709122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T46" t="n">
-        <v>84.59001010593099</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185699</v>
       </c>
-      <c r="D2" t="n">
-        <v>492625.0619185698</v>
-      </c>
       <c r="E2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852501</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852501</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852501</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852501</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852503</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>2.48295464189141e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865245</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26432,31 +26432,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
+        <v>22174.60758687067</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22174.60758687067</v>
+      </c>
+      <c r="M4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22174.6075868707</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-345834.7631459086</v>
+        <v>-345834.7631459087</v>
       </c>
       <c r="C6" t="n">
-        <v>244133.116068636</v>
+        <v>244133.1160686361</v>
       </c>
       <c r="D6" t="n">
-        <v>244133.1160686359</v>
+        <v>244133.1160686361</v>
       </c>
       <c r="E6" t="n">
-        <v>-171061.6895869547</v>
+        <v>-170184.5574532056</v>
       </c>
       <c r="F6" t="n">
-        <v>354098.3468899414</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="G6" t="n">
-        <v>354098.3468899414</v>
+        <v>354975.4790236906</v>
       </c>
       <c r="H6" t="n">
-        <v>354098.3468899415</v>
+        <v>354975.4790236906</v>
       </c>
       <c r="I6" t="n">
-        <v>354098.3468899415</v>
+        <v>354975.4790236909</v>
       </c>
       <c r="J6" t="n">
-        <v>177675.1276973486</v>
+        <v>178552.2598310979</v>
       </c>
       <c r="K6" t="n">
-        <v>354098.3468899411</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="L6" t="n">
-        <v>354098.3468899411</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="M6" t="n">
-        <v>219297.3316561039</v>
+        <v>220174.4637898535</v>
       </c>
       <c r="N6" t="n">
-        <v>354098.3468899415</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="O6" t="n">
-        <v>354098.3468899413</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="P6" t="n">
-        <v>354098.3468899413</v>
+        <v>354975.4790236907</v>
       </c>
     </row>
   </sheetData>
@@ -26740,37 +26740,37 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="G2" t="n">
-        <v>14.21956406210779</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.40120507984298</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>153.0517176144022</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>321.0067756471971</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>338.2729339837166</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664917</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>46.76331713866882</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>203.7209664948867</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339393</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.65885272800612</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>153.0517176144022</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>579.6103458172112</v>
+        <v>565.9730352236569</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109064</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>510.1640057735818</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958058</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>309.5875389014627</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
